--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Plxnd1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Plxnd1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2364093333333333</v>
+        <v>39.09670133333334</v>
       </c>
       <c r="H2">
-        <v>0.709228</v>
+        <v>117.290104</v>
       </c>
       <c r="I2">
-        <v>0.005805733041453686</v>
+        <v>0.9758026125363394</v>
       </c>
       <c r="J2">
-        <v>0.005805733041453687</v>
+        <v>0.9758026125363395</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.37814633333333</v>
+        <v>53.62555</v>
       </c>
       <c r="N2">
-        <v>265.134439</v>
+        <v>160.87665</v>
       </c>
       <c r="O2">
-        <v>0.7138016014383547</v>
+        <v>0.5942801874957572</v>
       </c>
       <c r="P2">
-        <v>0.7138016014383547</v>
+        <v>0.5942801874957572</v>
       </c>
       <c r="Q2">
-        <v>20.89341865589911</v>
+        <v>2096.582112185733</v>
       </c>
       <c r="R2">
-        <v>188.040767903092</v>
+        <v>18869.2390096716</v>
       </c>
       <c r="S2">
-        <v>0.004144141542513211</v>
+        <v>0.5799001595369454</v>
       </c>
       <c r="T2">
-        <v>0.004144141542513212</v>
+        <v>0.5799001595369455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2364093333333333</v>
+        <v>39.09670133333334</v>
       </c>
       <c r="H3">
-        <v>0.709228</v>
+        <v>117.290104</v>
       </c>
       <c r="I3">
-        <v>0.005805733041453686</v>
+        <v>0.9758026125363394</v>
       </c>
       <c r="J3">
-        <v>0.005805733041453687</v>
+        <v>0.9758026125363395</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>26.600026</v>
       </c>
       <c r="O3">
-        <v>0.07161325864989523</v>
+        <v>0.09826080067350991</v>
       </c>
       <c r="P3">
-        <v>0.07161325864989525</v>
+        <v>0.0982608006735099</v>
       </c>
       <c r="Q3">
-        <v>2.096164804436444</v>
+        <v>346.6577573269671</v>
       </c>
       <c r="R3">
-        <v>18.865483239928</v>
+        <v>3119.919815942704</v>
       </c>
       <c r="S3">
-        <v>0.0004157674619498658</v>
+        <v>0.09588314600712347</v>
       </c>
       <c r="T3">
-        <v>0.0004157674619498659</v>
+        <v>0.09588314600712346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2364093333333333</v>
+        <v>39.09670133333334</v>
       </c>
       <c r="H4">
-        <v>0.709228</v>
+        <v>117.290104</v>
       </c>
       <c r="I4">
-        <v>0.005805733041453686</v>
+        <v>0.9758026125363394</v>
       </c>
       <c r="J4">
-        <v>0.005805733041453687</v>
+        <v>0.9758026125363395</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.56849866666667</v>
+        <v>27.74391433333333</v>
       </c>
       <c r="N4">
-        <v>79.705496</v>
+        <v>83.23174299999999</v>
       </c>
       <c r="O4">
-        <v>0.2145851399117501</v>
+        <v>0.3074590118307329</v>
       </c>
       <c r="P4">
-        <v>0.2145851399117501</v>
+        <v>0.3074590118307329</v>
       </c>
       <c r="Q4">
-        <v>6.281041057454222</v>
+        <v>1084.695532507919</v>
       </c>
       <c r="R4">
-        <v>56.52936951708799</v>
+        <v>9762.259792571273</v>
       </c>
       <c r="S4">
-        <v>0.00124582403699061</v>
+        <v>0.3000193069922705</v>
       </c>
       <c r="T4">
-        <v>0.00124582403699061</v>
+        <v>0.3000193069922705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.09670133333334</v>
+        <v>0.9694973333333333</v>
       </c>
       <c r="H5">
-        <v>117.290104</v>
+        <v>2.908492</v>
       </c>
       <c r="I5">
-        <v>0.9601355730855794</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="J5">
-        <v>0.9601355730855795</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.37814633333333</v>
+        <v>53.62555</v>
       </c>
       <c r="N5">
-        <v>265.134439</v>
+        <v>160.87665</v>
       </c>
       <c r="O5">
-        <v>0.7138016014383547</v>
+        <v>0.5942801874957572</v>
       </c>
       <c r="P5">
-        <v>0.7138016014383547</v>
+        <v>0.5942801874957572</v>
       </c>
       <c r="Q5">
-        <v>3455.293991587962</v>
+        <v>51.98982772353333</v>
       </c>
       <c r="R5">
-        <v>31097.64592429166</v>
+        <v>467.9084495117999</v>
       </c>
       <c r="S5">
-        <v>0.6853463096664191</v>
+        <v>0.01438002795881168</v>
       </c>
       <c r="T5">
-        <v>0.6853463096664191</v>
+        <v>0.01438002795881168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.09670133333334</v>
+        <v>0.9694973333333333</v>
       </c>
       <c r="H6">
-        <v>117.290104</v>
+        <v>2.908492</v>
       </c>
       <c r="I6">
-        <v>0.9601355730855794</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="J6">
-        <v>0.9601355730855795</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>26.600026</v>
       </c>
       <c r="O6">
-        <v>0.07161325864989523</v>
+        <v>0.09826080067350991</v>
       </c>
       <c r="P6">
-        <v>0.07161325864989525</v>
+        <v>0.0982608006735099</v>
       </c>
       <c r="Q6">
-        <v>346.6577573269671</v>
+        <v>8.596218091199111</v>
       </c>
       <c r="R6">
-        <v>3119.919815942704</v>
+        <v>77.36596282079199</v>
       </c>
       <c r="S6">
-        <v>0.06875843713434299</v>
+        <v>0.002377654666386437</v>
       </c>
       <c r="T6">
-        <v>0.068758437134343</v>
+        <v>0.002377654666386437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.09670133333334</v>
+        <v>0.9694973333333333</v>
       </c>
       <c r="H7">
-        <v>117.290104</v>
+        <v>2.908492</v>
       </c>
       <c r="I7">
-        <v>0.9601355730855794</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="J7">
-        <v>0.9601355730855795</v>
+        <v>0.02419738746366056</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.56849866666667</v>
+        <v>27.74391433333333</v>
       </c>
       <c r="N7">
-        <v>79.705496</v>
+        <v>83.23174299999999</v>
       </c>
       <c r="O7">
-        <v>0.2145851399117501</v>
+        <v>0.3074590118307329</v>
       </c>
       <c r="P7">
-        <v>0.2145851399117501</v>
+        <v>0.3074590118307329</v>
       </c>
       <c r="Q7">
-        <v>1038.740657245732</v>
+        <v>26.89765096239511</v>
       </c>
       <c r="R7">
-        <v>9348.665915211584</v>
+        <v>242.078858661556</v>
       </c>
       <c r="S7">
-        <v>0.2060308262848174</v>
+        <v>0.007439704838462439</v>
       </c>
       <c r="T7">
-        <v>0.2060308262848174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.386869333333333</v>
-      </c>
-      <c r="H8">
-        <v>4.160608</v>
-      </c>
-      <c r="I8">
-        <v>0.03405869387296686</v>
-      </c>
-      <c r="J8">
-        <v>0.03405869387296687</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>88.37814633333333</v>
-      </c>
-      <c r="N8">
-        <v>265.134439</v>
-      </c>
-      <c r="O8">
-        <v>0.7138016014383547</v>
-      </c>
-      <c r="P8">
-        <v>0.7138016014383547</v>
-      </c>
-      <c r="Q8">
-        <v>122.5689408865458</v>
-      </c>
-      <c r="R8">
-        <v>1103.120467978912</v>
-      </c>
-      <c r="S8">
-        <v>0.02431115022942242</v>
-      </c>
-      <c r="T8">
-        <v>0.02431115022942243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.386869333333333</v>
-      </c>
-      <c r="H9">
-        <v>4.160608</v>
-      </c>
-      <c r="I9">
-        <v>0.03405869387296686</v>
-      </c>
-      <c r="J9">
-        <v>0.03405869387296687</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.866675333333333</v>
-      </c>
-      <c r="N9">
-        <v>26.600026</v>
-      </c>
-      <c r="O9">
-        <v>0.07161325864989523</v>
-      </c>
-      <c r="P9">
-        <v>0.07161325864989525</v>
-      </c>
-      <c r="Q9">
-        <v>12.29692010842311</v>
-      </c>
-      <c r="R9">
-        <v>110.672280975808</v>
-      </c>
-      <c r="S9">
-        <v>0.002439054053602378</v>
-      </c>
-      <c r="T9">
-        <v>0.002439054053602379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.386869333333333</v>
-      </c>
-      <c r="H10">
-        <v>4.160608</v>
-      </c>
-      <c r="I10">
-        <v>0.03405869387296686</v>
-      </c>
-      <c r="J10">
-        <v>0.03405869387296687</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>26.56849866666667</v>
-      </c>
-      <c r="N10">
-        <v>79.705496</v>
-      </c>
-      <c r="O10">
-        <v>0.2145851399117501</v>
-      </c>
-      <c r="P10">
-        <v>0.2145851399117501</v>
-      </c>
-      <c r="Q10">
-        <v>36.84703603350756</v>
-      </c>
-      <c r="R10">
-        <v>331.6233243015679</v>
-      </c>
-      <c r="S10">
-        <v>0.007308489589942059</v>
-      </c>
-      <c r="T10">
-        <v>0.007308489589942061</v>
+        <v>0.007439704838462438</v>
       </c>
     </row>
   </sheetData>
